--- a/converted/Laboratory Order and Result form_converted.xlsx
+++ b/converted/Laboratory Order and Result form_converted.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,11 +557,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>indication_for_ahd_options</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -583,7 +579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -624,7 +620,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -640,12 +636,16 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -722,12 +722,20 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,7 +755,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -807,11 +815,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>cd4_lfa_result_options</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -833,7 +837,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -874,7 +878,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -890,12 +894,16 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -915,7 +923,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -956,7 +964,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -997,7 +1005,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1038,7 +1046,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1054,12 +1062,20 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1079,7 +1095,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1120,7 +1136,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1136,7 +1152,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1161,7 +1177,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1202,7 +1218,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1218,12 +1234,16 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1243,7 +1263,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1284,7 +1304,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1300,12 +1320,20 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1325,7 +1353,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1366,7 +1394,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1382,12 +1410,20 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1407,7 +1443,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1448,7 +1484,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1464,12 +1500,20 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1489,7 +1533,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1530,7 +1574,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1546,12 +1590,20 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1571,7 +1623,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1612,7 +1664,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1628,12 +1680,20 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1653,7 +1713,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1694,7 +1754,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1710,12 +1770,20 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1735,7 +1803,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1776,7 +1844,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1792,12 +1860,20 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1817,7 +1893,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1858,7 +1934,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1874,7 +1950,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1899,7 +1975,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1940,7 +2016,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1956,7 +2032,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1981,7 +2057,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2022,7 +2098,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2038,12 +2114,16 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2063,7 +2143,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2123,11 +2203,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>hcv_antibody_options</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
     </row>
@@ -2149,7 +2225,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2209,11 +2285,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>hbsag_options</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
     </row>
@@ -2235,7 +2307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2295,11 +2367,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>vdrl_options</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
     </row>
@@ -2321,7 +2389,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2362,7 +2430,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2378,12 +2446,16 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2403,7 +2475,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2444,7 +2516,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2460,12 +2532,16 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2485,7 +2561,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2526,7 +2602,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2542,7 +2618,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2567,7 +2643,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2608,7 +2684,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2624,12 +2700,16 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2649,7 +2729,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2690,7 +2770,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2706,7 +2786,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -2731,7 +2811,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2772,7 +2852,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2788,12 +2868,16 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2813,7 +2897,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2854,7 +2938,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2870,12 +2954,16 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2895,7 +2983,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2936,7 +3024,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2952,12 +3040,16 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2977,7 +3069,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3018,7 +3110,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3034,12 +3126,16 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3059,7 +3155,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3100,7 +3196,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3116,12 +3212,16 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3141,7 +3241,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3182,7 +3282,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3198,12 +3298,16 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3223,7 +3327,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3264,7 +3368,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3280,12 +3384,16 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3305,7 +3413,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3346,7 +3454,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3362,12 +3470,16 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3387,7 +3499,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3428,7 +3540,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3444,7 +3556,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3469,7 +3581,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3510,7 +3622,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3526,7 +3638,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3551,7 +3663,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3592,7 +3704,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3608,12 +3720,16 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3633,7 +3749,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3693,11 +3809,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>pregnancy_options</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
     </row>
@@ -3719,7 +3831,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3779,11 +3891,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>malaria_smear_options</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
     </row>
@@ -3805,7 +3913,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3865,11 +3973,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>tb_lf_lam_options</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
     </row>
@@ -3891,7 +3995,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3973,7 +4077,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4033,11 +4137,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
     </row>
@@ -4059,7 +4159,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4119,11 +4219,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
     </row>
@@ -4145,7 +4241,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4186,7 +4282,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4268,7 +4364,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4328,11 +4424,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
     </row>
@@ -4354,7 +4446,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4414,11 +4506,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
     </row>
@@ -4440,7 +4528,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4481,7 +4569,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4563,7 +4651,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4664,11 +4752,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>sample_id._options</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
     </row>
@@ -4709,11 +4793,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
     </row>
@@ -4735,7 +4815,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4751,7 +4831,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4776,7 +4856,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4792,7 +4872,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4817,7 +4897,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4833,7 +4913,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -4858,7 +4938,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4874,7 +4954,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4899,7 +4979,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4915,7 +4995,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -4940,7 +5020,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4956,7 +5036,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4981,7 +5061,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4997,7 +5077,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -5017,12 +5097,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Assay Date</t>
+          <t>Assay Date (2)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5032,13 +5112,13 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>assayDate_110</t>
+          <t>assayDate2_110</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -5082,11 +5162,7 @@
           <t>select</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
     </row>
@@ -5149,7 +5225,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Numeric</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5165,12 +5241,16 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5190,7 +5270,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5272,7 +5352,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5288,7 +5368,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5313,7 +5393,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5329,7 +5409,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5354,7 +5434,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5370,7 +5450,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5390,12 +5470,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M41L</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5411,14 +5491,10 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
     </row>
@@ -5435,12 +5511,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K65R</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5450,20 +5526,16 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_120</t>
+          <t>resistanceMutationsDetected2_120</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
     </row>
@@ -5480,12 +5552,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>D67N</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5495,20 +5567,16 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_121</t>
+          <t>resistanceMutationsDetected3_121</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
     </row>
@@ -5525,12 +5593,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>D67G</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5540,20 +5608,16 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_122</t>
+          <t>resistanceMutationsDetected4_122</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
     </row>
@@ -5570,12 +5634,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T69D</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5585,20 +5649,16 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_123</t>
+          <t>resistanceMutationsDetected5_123</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
     </row>
@@ -5615,12 +5675,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K70R</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5630,20 +5690,16 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_124</t>
+          <t>resistanceMutationsDetected6_124</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
     </row>
@@ -5660,12 +5716,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K70E</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5675,20 +5731,16 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_125</t>
+          <t>resistanceMutationsDetected7_125</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
     </row>
@@ -5705,12 +5757,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L74V</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5720,20 +5772,16 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_126</t>
+          <t>resistanceMutationsDetected8_126</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
     </row>
@@ -5750,12 +5798,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L74I</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5765,20 +5813,16 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_127</t>
+          <t>resistanceMutationsDetected9_127</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
     </row>
@@ -5795,12 +5839,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V75M</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5810,20 +5854,16 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_128</t>
+          <t>resistanceMutationsDetected10_128</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
     </row>
@@ -5840,12 +5880,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>F77L</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5855,20 +5895,16 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_129</t>
+          <t>resistanceMutationsDetected11_129</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
     </row>
@@ -5885,12 +5921,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y115F</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5900,20 +5936,16 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_130</t>
+          <t>resistanceMutationsDetected12_130</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
     </row>
@@ -5930,12 +5962,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>F116Y</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5945,20 +5977,16 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_131</t>
+          <t>resistanceMutationsDetected13_131</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
     </row>
@@ -5975,12 +6003,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Q151M</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5990,20 +6018,16 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_132</t>
+          <t>resistanceMutationsDetected14_132</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
     </row>
@@ -6020,12 +6044,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M184V</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6035,20 +6059,16 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_133</t>
+          <t>resistanceMutationsDetected15_133</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
     </row>
@@ -6065,12 +6085,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M184I</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6080,20 +6100,16 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_134</t>
+          <t>resistanceMutationsDetected16_134</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
     </row>
@@ -6110,12 +6126,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L210W</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6125,20 +6141,16 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_135</t>
+          <t>resistanceMutationsDetected17_135</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
     </row>
@@ -6155,12 +6167,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215Y</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6170,20 +6182,16 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_136</t>
+          <t>resistanceMutationsDetected18_136</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
     </row>
@@ -6200,12 +6208,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215F</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6215,20 +6223,16 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_137</t>
+          <t>resistanceMutationsDetected19_137</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
     </row>
@@ -6245,12 +6249,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215I</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6260,20 +6264,16 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_138</t>
+          <t>resistanceMutationsDetected20_138</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
     </row>
@@ -6290,12 +6290,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215S</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6305,20 +6305,16 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_139</t>
+          <t>resistanceMutationsDetected21_139</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
     </row>
@@ -6335,12 +6331,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215C</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6350,20 +6346,16 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_140</t>
+          <t>resistanceMutationsDetected22_140</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
     </row>
@@ -6380,12 +6372,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>T215E</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6395,20 +6387,16 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_141</t>
+          <t>resistanceMutationsDetected23_141</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
     </row>
@@ -6425,12 +6413,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K219Q</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6440,20 +6428,16 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_142</t>
+          <t>resistanceMutationsDetected24_142</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
     </row>
@@ -6470,12 +6454,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K219E</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6485,20 +6469,16 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_143</t>
+          <t>resistanceMutationsDetected25_143</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
     </row>
@@ -6515,12 +6495,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K219N</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6530,20 +6510,16 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_144</t>
+          <t>resistanceMutationsDetected26_144</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
     </row>
@@ -6560,12 +6536,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K219R</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6575,20 +6551,16 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_145</t>
+          <t>resistanceMutationsDetected27_145</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
     </row>
@@ -6605,12 +6577,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L100I</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6620,20 +6592,16 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_146</t>
+          <t>resistanceMutationsDetected28_146</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
     </row>
@@ -6650,12 +6618,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K101E</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6665,20 +6633,16 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_147</t>
+          <t>resistanceMutationsDetected29_147</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
     </row>
@@ -6695,12 +6659,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K101P</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6710,20 +6674,16 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_148</t>
+          <t>resistanceMutationsDetected30_148</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
     </row>
@@ -6740,12 +6700,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K103N</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6755,20 +6715,16 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_149</t>
+          <t>resistanceMutationsDetected31_149</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
     </row>
@@ -6785,12 +6741,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>K103S</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6800,20 +6756,16 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_150</t>
+          <t>resistanceMutationsDetected32_150</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
     </row>
@@ -6830,12 +6782,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V106M</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6845,20 +6797,16 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_151</t>
+          <t>resistanceMutationsDetected33_151</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
     </row>
@@ -6875,12 +6823,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V106A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6890,20 +6838,16 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_152</t>
+          <t>resistanceMutationsDetected34_152</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
     </row>
@@ -6920,12 +6864,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y181C</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6935,20 +6879,16 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_153</t>
+          <t>resistanceMutationsDetected35_153</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
     </row>
@@ -6965,12 +6905,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y181V</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6980,20 +6920,16 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_154</t>
+          <t>resistanceMutationsDetected36_154</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
     </row>
@@ -7010,12 +6946,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y188L</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7025,20 +6961,16 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_155</t>
+          <t>resistanceMutationsDetected37_155</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
     </row>
@@ -7055,12 +6987,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y188H</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7070,20 +7002,16 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_156</t>
+          <t>resistanceMutationsDetected38_156</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
     </row>
@@ -7100,12 +7028,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>Y188C</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7115,20 +7043,16 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_157</t>
+          <t>resistanceMutationsDetected39_157</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
     </row>
@@ -7145,12 +7069,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>G190A</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7160,20 +7084,16 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_158</t>
+          <t>resistanceMutationsDetected40_158</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
     </row>
@@ -7190,12 +7110,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>G190S</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7205,20 +7125,16 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_159</t>
+          <t>resistanceMutationsDetected41_159</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
     </row>
@@ -7235,12 +7151,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>G190E</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7250,20 +7166,16 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_160</t>
+          <t>resistanceMutationsDetected42_160</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
     </row>
@@ -7280,12 +7192,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>P225H</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7295,20 +7207,16 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_161</t>
+          <t>resistanceMutationsDetected43_161</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
     </row>
@@ -7325,12 +7233,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M230L</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7340,20 +7248,16 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_162</t>
+          <t>resistanceMutationsDetected44_162</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
     </row>
@@ -7370,12 +7274,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L24I</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7385,20 +7289,16 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_163</t>
+          <t>resistanceMutationsDetected45_163</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
     </row>
@@ -7415,12 +7315,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M46I</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7430,20 +7330,16 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_164</t>
+          <t>resistanceMutationsDetected46_164</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
     </row>
@@ -7460,12 +7356,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>M46L</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7475,20 +7371,16 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_165</t>
+          <t>resistanceMutationsDetected47_165</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
     </row>
@@ -7505,12 +7397,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>I50V</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7520,20 +7412,16 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_166</t>
+          <t>resistanceMutationsDetected48_166</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
     </row>
@@ -7550,12 +7438,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>I50L</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7565,20 +7453,16 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_167</t>
+          <t>resistanceMutationsDetected49_167</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
     </row>
@@ -7595,12 +7479,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>F53L</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7610,20 +7494,16 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_168</t>
+          <t>resistanceMutationsDetected50_168</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
     </row>
@@ -7640,12 +7520,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>I54V</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7655,20 +7535,16 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_169</t>
+          <t>resistanceMutationsDetected51_169</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
     </row>
@@ -7685,12 +7561,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>I54L</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7700,20 +7576,16 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_170</t>
+          <t>resistanceMutationsDetected52_170</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
     </row>
@@ -7730,12 +7602,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>G73S</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7745,20 +7617,16 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_171</t>
+          <t>resistanceMutationsDetected53_171</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
     </row>
@@ -7775,12 +7643,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L76V</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7790,20 +7658,16 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_172</t>
+          <t>resistanceMutationsDetected54_172</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
     </row>
@@ -7820,12 +7684,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V82A</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7835,20 +7699,16 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_173</t>
+          <t>resistanceMutationsDetected55_173</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
     </row>
@@ -7865,12 +7725,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V82F</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7880,20 +7740,16 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_174</t>
+          <t>resistanceMutationsDetected56_174</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
     </row>
@@ -7910,12 +7766,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V82S</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7925,20 +7781,16 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_175</t>
+          <t>resistanceMutationsDetected57_175</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
     </row>
@@ -7955,12 +7807,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>V82M</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7970,20 +7822,16 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_176</t>
+          <t>resistanceMutationsDetected58_176</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
     </row>
@@ -8000,12 +7848,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>N83D</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8015,20 +7863,16 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_177</t>
+          <t>resistanceMutationsDetected59_177</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
     </row>
@@ -8045,12 +7889,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>I84V</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8060,20 +7904,16 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_178</t>
+          <t>resistanceMutationsDetected60_178</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
     </row>
@@ -8090,12 +7930,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Resistance Mutations Detected</t>
+          <t>L90M</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Coded</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8105,20 +7945,16 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>resistanceMutationsDetected_179</t>
+          <t>resistanceMutationsDetected61_179</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
     </row>
@@ -8140,7 +7976,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Coded</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8181,7 +8017,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8197,7 +8033,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -8222,7 +8058,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Provider</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8238,7 +8074,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>ui-select-extended</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -8263,7 +8099,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8279,7 +8115,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -8304,7 +8140,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Provider</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8320,7 +8156,7 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>ui-select-extended</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -8345,7 +8181,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8361,12 +8197,53 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Visit Date</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>encounterDate_186</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8379,7 +8256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8404,1700 +8281,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>indication_for_ahd_options</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Baseline</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>162080AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>indication_for_ahd_options</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Repeat</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>162081AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cd4_lfa_result_options</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>&lt;200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b62ff565-55a3-472a-9d11-c1f5dfe95a00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cd4_lfa_result_options</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>&gt;=200</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>f3720c6d-828a-42db-95e0-a5e3f3fdadcb</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>hcv_antibody_options</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>hcv_antibody_options</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hbsag_options</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>hbsag_options</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>vdrl_options</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Reactive</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1228AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>vdrl_options</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Non-Reactive</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1229AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pregnancy_options</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>pregnancy_options</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>malaria_smear_options</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>malaria_smear_options</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>tb_lf_lam_options</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>tb_lf_lam_options</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>serology_for_crag_result_options</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>703AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>csf_for_crag_options</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>664AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>sample_id._options</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Whole Blood</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1000AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>sample_id._options</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Plasma</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1002AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>sample_id._options</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DBS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>397afc02-f2d6-4436-895a-7ade17e76d6e</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>sample_id._options</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Plasma separation card(PSC)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>a7ed790e-f9cc-4273-b0bf-647affc73c2a</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Baseline (6 months after ART initiation)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>162080AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Routine (every 12 months)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>161236AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Confirmation (3-6 months after intense adherence counselling)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>162082AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Repeat test</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>162081AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Clinical failure</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>163523AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Immunological failure</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>160566AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>sample_type_options</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PMTCT 32-36 weeks gestation</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6cb50e40-ddf7-4a62-9340-392ef7de1109</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>&lt;20</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>341b01b6-8858-4afc-ac78-7090b9307808</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>&lt;29</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ef932eb8-16ee-41ec-bcda-215d75d91809</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>&lt;30</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>11346d03-015f-4cdd-a1a5-1f920bb16ed9</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>&lt;40</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>75743ab8-4189-424e-a18a-38978bd49252</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>&lt;400</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>e73e6a1c-8161-40be-88ba-ca14182d91da</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>&lt;80</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2a5a7fed-b0d4-4736-b541-463c795f0c75</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>&gt;10 000 000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>02518676-2b57-46dd-b2a1-bbf9f523f07a</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>06ab11bb-97d9-40f5-ba0b-a9547cc025ad</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Double entry</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ce596291-2a3a-4a3b-8ab5-3c35d343d381</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>fa74a055-a622-4e0e-a462-c672e45b1262</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>c0cb71b6-d752-4d7b-b2e3-209138f5e5cd</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Failed twice</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>c99b3c37-c64d-468c-aa70-763f9e2d0c52</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Incomplete number</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>85efaa33-e5ba-4a6b-a340-58b3f7ccc20a</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Incorrect entry</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>6b724cad-6939-4486-8e41-c1f86d250aa9</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>163611AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Target Not Detected</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>dbf837e2-9f05-4010-a581-d2dfddcbbc44</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Wrong entry</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>24332632-cb52-4427-a83a-75828939465a</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>approval_date_options</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Numeric Value</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0166cf96-67b8-416c-af1d-c31a48f9ee71</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>M41L</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>K65R</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>D67N</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>D67G</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>T69D</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>K70R</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>K70E</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>L74V</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>L74I</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>V75M</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>F77L</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Y115F</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>F116Y</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Q151M</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>M184V</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>M184I</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>L210W</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>T215Y</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>T215F</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>T215I</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>T215S</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>T215C</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>T215E</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>K219Q</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>K219E</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>K219N</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>K219R</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>L100I</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>K101E</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>K101P</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>K103N</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>K103S</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>V106M</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>V106A</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Y181C</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Y181V</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Y188L</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Y188H</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Y188C</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>G190A</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>G190S</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>G190E</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>P225H</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>M230L</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>L24I</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>M46I</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>M46L</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>I50V</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>I50L</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>F53L</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>I54V</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>I54L</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>G73S</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>L76V</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>V82A</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>V82F</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>V82S</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>V82M</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>N83D</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>I84V</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>resistance_mutations_detected_options</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>L90M</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
